--- a/biology/Zoologie/Gymnothorax_prasinus/Gymnothorax_prasinus.xlsx
+++ b/biology/Zoologie/Gymnothorax_prasinus/Gymnothorax_prasinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La murène jaune, Gymnothorax prasinus, est une espèce de murène appartenant au genre Gymnothorax et que l'on trouve au sud de l'Australie et entre le Cap Nord et la péninsule de Mahia sur l'Île du Nord en Nouvelle-Zélande.
 </t>
